--- a/biology/Zoologie/Euarthropoda/Euarthropoda.xlsx
+++ b/biology/Zoologie/Euarthropoda/Euarthropoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euarthropodes, Arthropodes supérieurs
 Les Euarthropoda (arthropodes supérieurs ou euarthropodes) sont le groupe-couronne des arthropodes (Arthropoda) actuels, si l'on considère que les trilobites font partie des Arachnomorpha (en), le clade proposé contenant notamment les arachnides.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Euarthropoda vient du grec ancien εὖ, eû  (« vrai, véritable »), ἄρθρον, arthron (« articulation ») et de πούς, poús (« de pied »), vrai pied articulé.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractères dérivés partagés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les synapomorphies du groupe sont les suivantes :
 L'animal est métamérisé et porte un exosquelette subdivisé en pièces, les sclérites (tergite dorsale, sternite ventrale et pleurites latérales).
@@ -578,9 +594,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce clade rassemble les arthropodes à carapace bien développée, par opposition au grade des proarthropodes, l'ensemble formant l'embranchement des Arthropodes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce clade rassemble les arthropodes à carapace bien développée, par opposition au grade des proarthropodes, l'ensemble formant l'embranchement des Arthropodes.
 Arachnomorpha (en)
 Chelicerata
 Xiphosura
